--- a/result/sbfss-hm.xlsx
+++ b/result/sbfss-hm.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -543,6 +543,7 @@
     <col min="2" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/result/sbfss-hm.xlsx
+++ b/result/sbfss-hm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>72408B/1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,110 +32,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SBFSS:99.5%/32.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM:88.6%/29.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98.0%/22.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90.6%/18.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92.2%/14.1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98.2%/15.9%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99.0%/14.4%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90.7%/11.7%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM:89.7%%/45.9%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>108KB/1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SBFSS:99.7%/40.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98.7%/27.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90.4%/29.4%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92.6%/22.0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98.7%/20.0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99.4%/17.1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.2%/18.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM:92.0%/31.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBFSS:100%/42.2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72408B/1000W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.0%/20.2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%/28.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99.9%/20.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94.0%/15.3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.9%/12.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%/17.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>108KB/1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,35 +52,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HM:91.9%/47.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBFSS:100%/47.3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%/31.0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.2%/30.7%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94.2%/23.0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%/23.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%/20.0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96.0%/19.5%</t>
+    <t>SBFSS:100%/42.2%/0.594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM:92.0%/31.5%/0.469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%/28.8%/0.447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.0%/20.2%/0.332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.9%/20.8%/0.344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94.0%/15.3%/0.263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%/17.8%/0.302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.9%/12.6%/0.223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBFSS:100%/47.3%/0.642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM:91.9%/47.6%/0.627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%/31.0%/0.473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.2%/30.7%/0.462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%/23.6%/0.382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94.2%/23.0%/0.370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%/20.0%/0.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96.0%/19.5%/0.324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBFSS:99.5%/32.8%/0.493</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM:88.6%/29.4%/0.441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.0%/22.5%/0.366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.6%/18.6%/0.309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.2%/15.9%/0.274</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.2%/14.1%/0.245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.0%/14.4%/0.251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.7%/11.7%/0.207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBFSS:99.7%/40.6%/0.577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM:89.7%%/45.9%/0.607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.7%/27.6%/0.431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.4%/29.4%/0.444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.7%/20.0%/0.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.6%/22.0%/0.356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.4%/17.1%/0.292</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.2%/18.6%/0.311</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,29 +527,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="65.21875" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -565,154 +565,154 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/result/sbfss-hm.xlsx
+++ b/result/sbfss-hm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>72408B/1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,46 @@
   </si>
   <si>
     <t>95.2%/18.6%/0.311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54KB/1000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBFSS:97.6%/28.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM:82.8%/22%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54KB/3000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.2%/13.7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96.4%/19.2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.5/10.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.9%/8.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96.7/13.9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.6%/12.8%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +237,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,9 +267,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -678,7 +726,7 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -713,6 +761,42 @@
       </c>
       <c r="D20" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/result/sbfss-hm.xlsx
+++ b/result/sbfss-hm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>72408B/1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,34 +52,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SBFSS:100%/42.2%/0.594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HM:92.0%/31.5%/0.469</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100%/28.8%/0.447</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>93.0%/20.2%/0.332</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99.9%/20.8%/0.344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>94.0%/15.3%/0.263</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100%/17.8%/0.302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>95.9%/12.6%/0.223</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,34 +100,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SBFSS:99.5%/32.8%/0.493</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HM:88.6%/29.4%/0.441</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>98.0%/22.5%/0.366</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90.6%/18.6%/0.309</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>98.2%/15.9%/0.274</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>92.2%/14.1%/0.245</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99.0%/14.4%/0.251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90.7%/11.7%/0.207</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,39 +152,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SBFSS:97.6%/28.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM:82.8%/22%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>54KB/3000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>84.2%/13.7%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96.4%/19.2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85.5/10.3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85.9%/8.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96.7/13.9%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97.6%/12.8%</t>
+    <t>54KB/5000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54KB/7000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54KB/1000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54KB/3000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54KB/5000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54KB/7000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBFSS:100%/41.9%/0.590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.9%/20.9%/0.346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.9%/17.7%/0.301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%/28.7%/0.446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBFSS:99.9%/38.6%/0.557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM:91.6%/24.2%/0.383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%/26.8%/0.423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.9%/15.5%/0.265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.9%/19.0%/0.319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.6%/11.5%/0.205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.9%/16.5%/0.283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94.9%/9.5%/0.173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.7%/33.4%/0.500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.6%/23.2%/0.376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.9%/16.3%/0.280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.8%/14.5%/0.253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBFSS:98.1%/27.9%/0.434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM:82.8%/22%//0.348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.2%/18.9%/0.317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.2%/13.7%/0.236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.4%/13.7%/0.241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.5/10.3%/0.184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.3%/12.7%/0.225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.9%/8.6%/0.156</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +300,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,10 +331,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D24"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -615,188 +682,239 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
